--- a/SF.Utils.Tests/files/attendance generation files/to process/2020年控制阀4月考勤.xlsx
+++ b/SF.Utils.Tests/files/attendance generation files/to process/2020年控制阀4月考勤.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39E7329-BD4E-4A0F-9982-2987F2BAB2EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D256032-3BAF-4CBC-BA1D-1FB509738636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="1068" windowWidth="15480" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,18 +708,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,6 +728,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,7 +1084,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1108,91 +1108,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
     </row>
     <row r="2" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="38"/>
     </row>
     <row r="3" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1299,117 +1299,117 @@
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
     </row>
-    <row r="4" spans="1:39" s="39" customFormat="1" ht="28" customHeight="1">
-      <c r="A4" s="33">
+    <row r="4" spans="1:39" s="35" customFormat="1" ht="28" customHeight="1">
+      <c r="A4" s="29">
         <v>61</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36">
-        <v>4</v>
-      </c>
-      <c r="I4" s="35" t="s">
+      <c r="C4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32">
+        <v>4</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="31">
         <v>1</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="36">
-        <v>4</v>
-      </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36" t="s">
+      <c r="K4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="32">
+        <v>4</v>
+      </c>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="31">
         <v>1</v>
       </c>
-      <c r="R4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="36">
-        <v>8</v>
-      </c>
-      <c r="U4" s="35">
-        <v>8</v>
-      </c>
-      <c r="V4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="35">
+      <c r="R4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="32">
+        <v>8</v>
+      </c>
+      <c r="U4" s="31">
+        <v>8</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="31">
         <v>1</v>
       </c>
-      <c r="X4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="35">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC4" s="35">
+      <c r="X4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" s="31">
         <v>3</v>
       </c>
-      <c r="AD4" s="35">
+      <c r="AD4" s="31">
         <v>3</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AE4" s="32">
         <v>1</v>
       </c>
-      <c r="AF4" s="35">
+      <c r="AF4" s="31">
         <v>1</v>
       </c>
-      <c r="AG4" s="35">
+      <c r="AG4" s="31">
         <v>32</v>
       </c>
-      <c r="AH4" s="35">
+      <c r="AH4" s="31">
         <v>11</v>
       </c>
-      <c r="AI4" s="35">
+      <c r="AI4" s="31">
         <v>2</v>
       </c>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
     </row>
-    <row r="5" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="5" spans="1:39" ht="28" customHeight="1">
       <c r="A5" s="20">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
@@ -1420,108 +1420,111 @@
       <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="I5" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="12">
-        <v>4</v>
-      </c>
-      <c r="L5" s="12">
-        <v>4</v>
-      </c>
-      <c r="M5" s="21">
-        <v>8</v>
-      </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="21">
+        <v>8</v>
+      </c>
+      <c r="O5" s="12">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>4</v>
+      </c>
+      <c r="R5" s="12">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12">
+        <v>4</v>
+      </c>
+      <c r="T5" s="21">
+        <v>12</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="V5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="12">
-        <v>4</v>
-      </c>
-      <c r="X5" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="22">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AG5" s="12">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="AH5" s="12">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="AI5" s="12">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AJ5" s="12">
-        <v>5</v>
-      </c>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A6" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -1532,43 +1535,43 @@
       <c r="J6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="21"/>
+      <c r="K6" s="12">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12">
+        <v>4</v>
+      </c>
+      <c r="M6" s="21">
+        <v>8</v>
+      </c>
       <c r="N6" s="21"/>
       <c r="O6" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="21">
-        <v>8</v>
-      </c>
-      <c r="V6" s="12">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="U6" s="21"/>
+      <c r="V6" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="W6" s="12">
         <v>4</v>
       </c>
-      <c r="X6" s="12" t="s">
-        <v>30</v>
+      <c r="X6" s="12">
+        <v>4</v>
       </c>
       <c r="Y6" s="12">
         <v>4</v>
@@ -1577,34 +1580,34 @@
         <v>4</v>
       </c>
       <c r="AA6" s="21">
-        <v>8</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="22">
+        <v>4</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AG6" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AH6" s="12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AI6" s="12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ6" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK6" s="4"/>
       <c r="AL6" s="5"/>
@@ -1612,19 +1615,19 @@
     </row>
     <row r="7" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A7" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -1636,10 +1639,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -1652,14 +1655,14 @@
       <c r="Q7" s="12">
         <v>4</v>
       </c>
-      <c r="R7" s="12">
-        <v>4</v>
-      </c>
-      <c r="S7" s="12">
-        <v>4</v>
-      </c>
-      <c r="T7" s="21">
-        <v>8</v>
+      <c r="R7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="U7" s="21">
         <v>8</v>
@@ -1670,8 +1673,8 @@
       <c r="W7" s="12">
         <v>4</v>
       </c>
-      <c r="X7" s="12">
-        <v>4</v>
+      <c r="X7" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="Y7" s="12">
         <v>4</v>
@@ -1680,32 +1683,34 @@
         <v>4</v>
       </c>
       <c r="AA7" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB7" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AE7" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AF7" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG7" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH7" s="12">
-        <v>45</v>
-      </c>
-      <c r="AI7" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>14</v>
+      </c>
       <c r="AJ7" s="12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK7" s="4"/>
       <c r="AL7" s="5"/>
@@ -1713,10 +1718,10 @@
     </row>
     <row r="8" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A8" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
@@ -1737,33 +1742,33 @@
         <v>19</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="12">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="Q8" s="12">
         <v>4</v>
       </c>
-      <c r="R8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>29</v>
+      <c r="R8" s="12">
+        <v>4</v>
+      </c>
+      <c r="S8" s="12">
+        <v>4</v>
+      </c>
+      <c r="T8" s="21">
+        <v>8</v>
+      </c>
+      <c r="U8" s="21">
+        <v>8</v>
       </c>
       <c r="V8" s="12">
         <v>4</v>
@@ -1774,14 +1779,14 @@
       <c r="X8" s="12">
         <v>4</v>
       </c>
-      <c r="Y8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>29</v>
+      <c r="Y8" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>12</v>
       </c>
       <c r="AB8" s="12">
         <v>4</v>
@@ -1789,26 +1794,24 @@
       <c r="AC8" s="12">
         <v>4</v>
       </c>
-      <c r="AD8" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF8" s="12">
-        <v>4</v>
+      <c r="AD8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AG8" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AH8" s="12">
-        <v>60</v>
-      </c>
-      <c r="AI8" s="12">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AI8" s="12"/>
       <c r="AJ8" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="4"/>
       <c r="AL8" s="5"/>
@@ -1816,16 +1819,16 @@
     </row>
     <row r="9" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A9" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
@@ -1834,52 +1837,48 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="P9" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>4</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="U9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="12">
-        <v>4</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>5</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="21">
-        <v>12</v>
-      </c>
-      <c r="U9" s="21">
-        <v>8</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>35</v>
+      <c r="V9" s="12">
+        <v>4</v>
+      </c>
+      <c r="W9" s="12">
+        <v>4</v>
+      </c>
+      <c r="X9" s="12">
+        <v>4</v>
       </c>
       <c r="Y9" s="12" t="s">
         <v>28</v>
@@ -1888,34 +1887,34 @@
         <v>28</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>4</v>
       </c>
       <c r="AG9" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AH9" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AI9" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AJ9" s="12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AK9" s="4"/>
       <c r="AL9" s="5"/>
@@ -1923,16 +1922,16 @@
     </row>
     <row r="10" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>19</v>
@@ -1941,89 +1940,99 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="O10" s="12">
         <v>4</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="12">
-        <v>4</v>
-      </c>
-      <c r="S10" s="12">
-        <v>4</v>
-      </c>
-      <c r="T10" s="21"/>
+      <c r="Q10" s="12">
+        <v>5</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="21">
+        <v>12</v>
+      </c>
       <c r="U10" s="21">
-        <v>12</v>
-      </c>
-      <c r="V10" s="12">
-        <v>4</v>
-      </c>
-      <c r="W10" s="12">
-        <v>4</v>
-      </c>
-      <c r="X10" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="12">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE10" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF10" s="12">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="AG10" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="AH10" s="12">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AI10" s="12">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="AJ10" s="12">
+        <v>11</v>
+      </c>
       <c r="AK10" s="4"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="11" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A11" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>19</v>
@@ -2038,43 +2047,37 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="12">
-        <v>4</v>
-      </c>
-      <c r="L11" s="12">
-        <v>4</v>
-      </c>
-      <c r="M11" s="21">
-        <v>8</v>
-      </c>
-      <c r="N11" s="21">
-        <v>8</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="12">
+        <v>4</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="21" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="R11" s="12">
+        <v>4</v>
+      </c>
+      <c r="S11" s="12">
+        <v>4</v>
+      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21">
+        <v>12</v>
       </c>
       <c r="V11" s="12">
         <v>4</v>
@@ -2091,44 +2094,42 @@
       <c r="Z11" s="12">
         <v>4</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="12">
         <v>12</v>
       </c>
-      <c r="AB11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AG11" s="12">
+      <c r="AH11" s="12">
         <v>48</v>
       </c>
-      <c r="AH11" s="12">
-        <v>68</v>
-      </c>
       <c r="AI11" s="12">
-        <v>9</v>
-      </c>
-      <c r="AJ11" s="12">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="12"/>
       <c r="AK11" s="4"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="12" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A12" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
@@ -2143,42 +2144,46 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="K12" s="12">
+        <v>4</v>
+      </c>
+      <c r="L12" s="12">
+        <v>4</v>
+      </c>
+      <c r="M12" s="21">
+        <v>8</v>
+      </c>
+      <c r="N12" s="21">
+        <v>8</v>
+      </c>
       <c r="O12" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>4</v>
-      </c>
-      <c r="R12" s="12">
-        <v>4</v>
-      </c>
-      <c r="S12" s="12">
-        <v>4</v>
-      </c>
-      <c r="T12" s="21">
-        <v>8</v>
-      </c>
-      <c r="U12" s="21">
-        <v>8</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="12">
+        <v>4</v>
       </c>
       <c r="W12" s="12">
         <v>4</v>
@@ -2211,25 +2216,25 @@
         <v>4</v>
       </c>
       <c r="AG12" s="12">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AH12" s="12">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="AI12" s="12">
-        <v>3</v>
-      </c>
-      <c r="AJ12" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>6</v>
+      </c>
       <c r="AK12" s="4"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
     </row>
     <row r="13" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A13" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
@@ -2250,10 +2255,10 @@
         <v>19</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
@@ -2263,8 +2268,8 @@
       <c r="P13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="12" t="s">
-        <v>19</v>
+      <c r="Q13" s="12">
+        <v>4</v>
       </c>
       <c r="R13" s="12">
         <v>4</v>
@@ -2315,22 +2320,22 @@
         <v>28</v>
       </c>
       <c r="AH13" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AI13" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="25"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:39" ht="28" customHeight="1">
+    <row r="14" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A14" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>19</v>
@@ -2364,8 +2369,8 @@
       <c r="P14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="12">
-        <v>4</v>
+      <c r="Q14" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="R14" s="12">
         <v>4</v>
@@ -2379,8 +2384,8 @@
       <c r="U14" s="21">
         <v>8</v>
       </c>
-      <c r="V14" s="12">
-        <v>4</v>
+      <c r="V14" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="W14" s="12">
         <v>4</v>
@@ -2406,29 +2411,32 @@
       <c r="AD14" s="12">
         <v>4</v>
       </c>
-      <c r="AE14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF14" s="12" t="s">
-        <v>32</v>
+      <c r="AE14" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>4</v>
       </c>
       <c r="AG14" s="12">
         <v>28</v>
       </c>
       <c r="AH14" s="12">
-        <v>45</v>
-      </c>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
     </row>
     <row r="15" spans="1:39" ht="28" customHeight="1">
       <c r="A15" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
@@ -2443,16 +2451,16 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -2462,8 +2470,8 @@
       <c r="P15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>19</v>
+      <c r="Q15" s="12">
+        <v>4</v>
       </c>
       <c r="R15" s="12">
         <v>4</v>
@@ -2504,29 +2512,29 @@
       <c r="AD15" s="12">
         <v>4</v>
       </c>
-      <c r="AE15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF15" s="12">
-        <v>4</v>
+      <c r="AE15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AG15" s="12">
         <v>28</v>
       </c>
       <c r="AH15" s="12">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="12">
-        <v>4</v>
-      </c>
-      <c r="AJ15" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:39" ht="28" customHeight="1">
       <c r="A16" s="20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>19</v>
@@ -2541,16 +2549,16 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -2560,8 +2568,8 @@
       <c r="P16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="12">
-        <v>4</v>
+      <c r="Q16" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="R16" s="12">
         <v>4</v>
@@ -2602,8 +2610,8 @@
       <c r="AD16" s="12">
         <v>4</v>
       </c>
-      <c r="AE16" s="12">
-        <v>4</v>
+      <c r="AE16" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AF16" s="12">
         <v>4</v>
@@ -2612,17 +2620,19 @@
         <v>28</v>
       </c>
       <c r="AH16" s="12">
-        <v>52</v>
-      </c>
-      <c r="AI16" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>4</v>
+      </c>
       <c r="AJ16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="28" customHeight="1">
       <c r="A17" s="20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
@@ -2656,8 +2666,8 @@
       <c r="P17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="12" t="s">
-        <v>19</v>
+      <c r="Q17" s="12">
+        <v>4</v>
       </c>
       <c r="R17" s="12">
         <v>4</v>
@@ -2677,8 +2687,8 @@
       <c r="W17" s="12">
         <v>4</v>
       </c>
-      <c r="X17" s="12" t="s">
-        <v>30</v>
+      <c r="X17" s="12">
+        <v>4</v>
       </c>
       <c r="Y17" s="12">
         <v>4</v>
@@ -2698,29 +2708,27 @@
       <c r="AD17" s="12">
         <v>4</v>
       </c>
-      <c r="AE17" s="22">
-        <v>4</v>
-      </c>
-      <c r="AF17" s="22">
+      <c r="AE17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="12">
         <v>4</v>
       </c>
       <c r="AG17" s="12">
         <v>28</v>
       </c>
       <c r="AH17" s="12">
-        <v>48</v>
-      </c>
-      <c r="AI17" s="12">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AI17" s="12"/>
       <c r="AJ17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="28" customHeight="1">
       <c r="A18" s="20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>19</v>
@@ -2735,27 +2743,27 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R18" s="12">
         <v>4</v>
@@ -2770,19 +2778,19 @@
         <v>8</v>
       </c>
       <c r="V18" s="12">
-        <v>-4</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="12">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="W18" s="12">
+        <v>4</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="Y18" s="12">
         <v>4</v>
       </c>
-      <c r="Z18" s="12" t="s">
-        <v>19</v>
+      <c r="Z18" s="12">
+        <v>4</v>
       </c>
       <c r="AA18" s="21">
         <v>12</v>
@@ -2794,31 +2802,31 @@
         <v>4</v>
       </c>
       <c r="AD18" s="12">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="12" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="AE18" s="22">
+        <v>4</v>
       </c>
       <c r="AF18" s="22">
         <v>4</v>
       </c>
       <c r="AG18" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AH18" s="12">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AI18" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="28" customHeight="1">
       <c r="A19" s="20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>19</v>
@@ -2833,29 +2841,27 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="21">
-        <v>8</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="R19" s="12">
         <v>4</v>
@@ -2870,10 +2876,10 @@
         <v>8</v>
       </c>
       <c r="V19" s="12">
-        <v>4</v>
-      </c>
-      <c r="W19" s="12">
-        <v>4</v>
+        <v>-4</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="X19" s="12">
         <v>4</v>
@@ -2881,8 +2887,8 @@
       <c r="Y19" s="12">
         <v>4</v>
       </c>
-      <c r="Z19" s="12">
-        <v>4</v>
+      <c r="Z19" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AA19" s="21">
         <v>12</v>
@@ -2894,42 +2900,40 @@
         <v>4</v>
       </c>
       <c r="AD19" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE19" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF19" s="12" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF19" s="22">
+        <v>4</v>
       </c>
       <c r="AG19" s="12">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AH19" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AI19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="12">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AJ19" s="12"/>
     </row>
     <row r="20" spans="1:39" ht="28" customHeight="1">
       <c r="A20" s="20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -2941,37 +2945,35 @@
         <v>19</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M20" s="21">
+        <v>8</v>
+      </c>
+      <c r="N20" s="21"/>
       <c r="O20" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="21" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="R20" s="12">
+        <v>4</v>
+      </c>
+      <c r="S20" s="12">
+        <v>4</v>
+      </c>
+      <c r="T20" s="21">
+        <v>8</v>
+      </c>
+      <c r="U20" s="21">
+        <v>8</v>
       </c>
       <c r="V20" s="12">
         <v>4</v>
@@ -3000,40 +3002,40 @@
       <c r="AD20" s="12">
         <v>4</v>
       </c>
-      <c r="AE20" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="12">
-        <v>4</v>
+      <c r="AE20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="AG20" s="12">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AH20" s="12">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI20" s="12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="12">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="28" customHeight="1">
       <c r="A21" s="20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -3045,32 +3047,34 @@
         <v>19</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="21">
-        <v>8</v>
-      </c>
-      <c r="N21" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="O21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>4</v>
-      </c>
-      <c r="R21" s="12">
-        <v>4</v>
-      </c>
-      <c r="S21" s="12">
-        <v>-2</v>
-      </c>
-      <c r="T21" s="21">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>29</v>
@@ -3109,40 +3113,42 @@
         <v>4</v>
       </c>
       <c r="AG21" s="12">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AH21" s="12">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="AI21" s="12">
-        <v>4</v>
-      </c>
-      <c r="AJ21" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="AJ21" s="12">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:39" ht="28" customHeight="1">
       <c r="A22" s="20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>27</v>
@@ -3154,8 +3160,8 @@
         <v>8</v>
       </c>
       <c r="N22" s="21"/>
-      <c r="O22" s="12">
-        <v>5</v>
+      <c r="O22" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="P22" s="12">
         <v>4</v>
@@ -3167,22 +3173,22 @@
         <v>4</v>
       </c>
       <c r="S22" s="12">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="T22" s="21">
-        <v>8</v>
-      </c>
-      <c r="U22" s="21">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="V22" s="12">
         <v>4</v>
       </c>
-      <c r="W22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X22" s="12" t="s">
-        <v>30</v>
+      <c r="W22" s="12">
+        <v>4</v>
+      </c>
+      <c r="X22" s="12">
+        <v>4</v>
       </c>
       <c r="Y22" s="12">
         <v>4</v>
@@ -3205,309 +3211,311 @@
       <c r="AE22" s="12">
         <v>4</v>
       </c>
-      <c r="AF22" s="12" t="s">
-        <v>30</v>
+      <c r="AF22" s="12">
+        <v>4</v>
       </c>
       <c r="AG22" s="12">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH22" s="12">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AI22" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AJ22" s="12"/>
     </row>
-    <row r="23" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:39" ht="28" customHeight="1">
+      <c r="A23" s="20">
+        <v>18</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="21">
+        <v>8</v>
+      </c>
+      <c r="N23" s="21"/>
+      <c r="O23" s="12">
+        <v>5</v>
+      </c>
+      <c r="P23" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>4</v>
+      </c>
+      <c r="R23" s="12">
+        <v>4</v>
+      </c>
+      <c r="S23" s="12">
+        <v>4</v>
+      </c>
+      <c r="T23" s="21">
+        <v>8</v>
+      </c>
+      <c r="U23" s="21">
+        <v>8</v>
+      </c>
+      <c r="V23" s="12">
+        <v>4</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG23" s="12">
+        <v>36</v>
+      </c>
+      <c r="AH23" s="12">
+        <v>61</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="12"/>
+    </row>
+    <row r="24" spans="1:39" ht="19.5" customHeight="1">
+      <c r="A24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B24" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C24" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
     </row>
-    <row r="24" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="18">
+    <row r="25" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="18">
         <v>1</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <v>2</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>3</v>
       </c>
-      <c r="F24" s="14">
-        <v>4</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="F25" s="14">
+        <v>4</v>
+      </c>
+      <c r="G25" s="14">
         <v>5</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>6</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="15">
         <v>7</v>
       </c>
-      <c r="J24" s="15">
-        <v>8</v>
-      </c>
-      <c r="K24" s="15">
+      <c r="J25" s="15">
+        <v>8</v>
+      </c>
+      <c r="K25" s="15">
         <v>9</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L25" s="15">
         <v>10</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="14">
         <v>11</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N25" s="14">
         <v>12</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O25" s="15">
         <v>13</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P25" s="15">
         <v>14</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q25" s="15">
         <v>15</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R25" s="15">
         <v>16</v>
       </c>
-      <c r="S24" s="15">
+      <c r="S25" s="15">
         <v>17</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T25" s="14">
         <v>18</v>
       </c>
-      <c r="U24" s="14">
-        <v>19</v>
-      </c>
-      <c r="V24" s="15">
+      <c r="U25" s="14">
+        <v>19</v>
+      </c>
+      <c r="V25" s="15">
         <v>20</v>
       </c>
-      <c r="W24" s="15">
+      <c r="W25" s="15">
         <v>21</v>
       </c>
-      <c r="X24" s="15">
+      <c r="X25" s="15">
         <v>22</v>
       </c>
-      <c r="Y24" s="15">
+      <c r="Y25" s="15">
         <v>23</v>
       </c>
-      <c r="Z24" s="15">
+      <c r="Z25" s="15">
         <v>24</v>
       </c>
-      <c r="AA24" s="14">
+      <c r="AA25" s="14">
         <v>25</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB25" s="15">
         <v>26</v>
       </c>
-      <c r="AC24" s="15">
-        <v>27</v>
-      </c>
-      <c r="AD24" s="15">
-        <v>28</v>
-      </c>
-      <c r="AE24" s="15">
+      <c r="AC25" s="15">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="15">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="15">
         <v>29</v>
       </c>
-      <c r="AF24" s="15">
+      <c r="AF25" s="15">
         <v>30</v>
       </c>
-      <c r="AG24" s="11" t="s">
+      <c r="AG25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AH24" s="11" t="s">
+      <c r="AH25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AI24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ24" s="11" t="s">
+      <c r="AI25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-    </row>
-    <row r="25" spans="1:39" ht="28" customHeight="1">
-      <c r="A25" s="20">
-        <v>19</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>4</v>
-      </c>
-      <c r="R25" s="12">
-        <v>4</v>
-      </c>
-      <c r="S25" s="12">
-        <v>4</v>
-      </c>
-      <c r="T25" s="21">
-        <v>8</v>
-      </c>
-      <c r="U25" s="21">
-        <v>8</v>
-      </c>
-      <c r="V25" s="12">
-        <v>4</v>
-      </c>
-      <c r="W25" s="12">
-        <v>4</v>
-      </c>
-      <c r="X25" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y25" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB25" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC25" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD25" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF25" s="12">
-        <v>4</v>
-      </c>
-      <c r="AG25" s="12">
-        <v>28</v>
-      </c>
-      <c r="AH25" s="12">
-        <v>48</v>
-      </c>
-      <c r="AI25" s="12">
-        <v>3</v>
-      </c>
-      <c r="AJ25" s="12"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
     </row>
     <row r="26" spans="1:39" ht="28" customHeight="1">
       <c r="A26" s="20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="12">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="Q26" s="12">
         <v>4</v>
@@ -3525,22 +3533,22 @@
         <v>8</v>
       </c>
       <c r="V26" s="12">
-        <v>-4</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="W26" s="12">
+        <v>4</v>
       </c>
       <c r="X26" s="12">
         <v>4</v>
       </c>
-      <c r="Y26" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA26" s="21" t="s">
-        <v>29</v>
+      <c r="Y26" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>12</v>
       </c>
       <c r="AB26" s="12">
         <v>4</v>
@@ -3551,60 +3559,58 @@
       <c r="AD26" s="12">
         <v>4</v>
       </c>
-      <c r="AE26" s="12">
-        <v>2</v>
+      <c r="AE26" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AF26" s="12">
         <v>4</v>
       </c>
       <c r="AG26" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AH26" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI26" s="12">
-        <v>7</v>
-      </c>
-      <c r="AJ26" s="12">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="12"/>
     </row>
     <row r="27" spans="1:39" ht="28" customHeight="1">
       <c r="A27" s="20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="12">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="P27" s="12">
         <v>4</v>
@@ -3619,76 +3625,76 @@
         <v>4</v>
       </c>
       <c r="T27" s="21">
-        <v>12</v>
-      </c>
-      <c r="U27" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="V27" s="12" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="U27" s="21">
+        <v>8</v>
+      </c>
+      <c r="V27" s="12">
+        <v>-4</v>
       </c>
       <c r="W27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X27" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="X27" s="12">
+        <v>4</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="Z27" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AA27" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF27" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>4</v>
       </c>
       <c r="AG27" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AH27" s="12">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AI27" s="12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AJ27" s="12">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="28" customHeight="1">
       <c r="A28" s="20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="12" t="s">
         <v>19</v>
       </c>
@@ -3701,13 +3707,13 @@
       <c r="L28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>19</v>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="12">
+        <v>4</v>
+      </c>
+      <c r="P28" s="12">
+        <v>4</v>
       </c>
       <c r="Q28" s="12">
         <v>4</v>
@@ -3719,59 +3725,63 @@
         <v>4</v>
       </c>
       <c r="T28" s="21">
-        <v>8</v>
-      </c>
-      <c r="U28" s="21">
-        <v>8</v>
-      </c>
-      <c r="V28" s="12">
-        <v>4</v>
-      </c>
-      <c r="W28" s="12">
-        <v>4</v>
-      </c>
-      <c r="X28" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA28" s="21">
+        <v>28</v>
+      </c>
+      <c r="AA28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG28" s="12">
+        <v>32</v>
+      </c>
+      <c r="AH28" s="12">
+        <v>60</v>
+      </c>
+      <c r="AI28" s="12">
+        <v>11</v>
+      </c>
+      <c r="AJ28" s="12">
         <v>12</v>
       </c>
-      <c r="AB28" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC28" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD28" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF28" s="12">
-        <v>4</v>
-      </c>
-      <c r="AG28" s="12">
-        <v>36</v>
-      </c>
-      <c r="AH28" s="12">
-        <v>44</v>
-      </c>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
     </row>
     <row r="29" spans="1:39" ht="28" customHeight="1">
       <c r="A29" s="20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>19</v>
@@ -3800,22 +3810,26 @@
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="12" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>4</v>
+      </c>
+      <c r="R29" s="12">
+        <v>4</v>
+      </c>
+      <c r="S29" s="12">
+        <v>4</v>
+      </c>
+      <c r="T29" s="21">
+        <v>8</v>
+      </c>
+      <c r="U29" s="21">
+        <v>8</v>
+      </c>
       <c r="V29" s="12">
         <v>4</v>
       </c>
@@ -3828,8 +3842,8 @@
       <c r="Y29" s="12">
         <v>4</v>
       </c>
-      <c r="Z29" s="12">
-        <v>4</v>
+      <c r="Z29" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AA29" s="21">
         <v>12</v>
@@ -3846,231 +3860,223 @@
       <c r="AE29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AF29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG29" s="12"/>
+      <c r="AF29" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG29" s="12">
+        <v>36</v>
+      </c>
       <c r="AH29" s="12">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="28" customHeight="1">
       <c r="A30" s="20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="12" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z30" s="12" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="12">
+        <v>4</v>
+      </c>
+      <c r="W30" s="12">
+        <v>4</v>
+      </c>
+      <c r="X30" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>4</v>
       </c>
       <c r="AA30" s="21">
         <v>12</v>
       </c>
-      <c r="AB30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD30" s="12" t="s">
-        <v>27</v>
+      <c r="AB30" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="12">
+        <v>4</v>
       </c>
       <c r="AE30" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AF30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG30" s="12">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AG30" s="12"/>
       <c r="AH30" s="12">
-        <v>8</v>
-      </c>
-      <c r="AI30" s="12">
-        <v>23</v>
-      </c>
-      <c r="AJ30" s="12">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
     </row>
     <row r="31" spans="1:39" ht="28" customHeight="1">
       <c r="A31" s="20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R31" s="12">
-        <v>4</v>
-      </c>
-      <c r="S31" s="12">
-        <v>4</v>
-      </c>
-      <c r="T31" s="21">
-        <v>8</v>
-      </c>
-      <c r="U31" s="21">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="W31" s="12">
-        <v>4</v>
-      </c>
-      <c r="X31" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z31" s="12">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AA31" s="21">
         <v>12</v>
       </c>
-      <c r="AB31" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC31" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD31" s="12">
-        <v>4</v>
+      <c r="AB31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="AE31" s="12" t="s">
         <v>28</v>
       </c>
       <c r="AF31" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH31" s="12">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="AI31" s="12">
+        <v>23</v>
+      </c>
+      <c r="AJ31" s="12">
         <v>2</v>
-      </c>
-      <c r="AJ31" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="28" customHeight="1">
       <c r="A32" s="20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -4082,21 +4088,21 @@
         <v>19</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
-      <c r="O32" s="12">
-        <v>4</v>
-      </c>
-      <c r="P32" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>4</v>
+      <c r="O32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="R32" s="12">
         <v>4</v>
@@ -4105,13 +4111,13 @@
         <v>4</v>
       </c>
       <c r="T32" s="21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U32" s="21">
         <v>8</v>
       </c>
-      <c r="V32" s="12">
-        <v>4</v>
+      <c r="V32" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="W32" s="12">
         <v>4</v>
@@ -4141,60 +4147,54 @@
         <v>28</v>
       </c>
       <c r="AF32" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AH32" s="12">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI32" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AJ32" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="28" customHeight="1">
       <c r="A33" s="20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="21">
-        <v>8</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="12">
         <v>4</v>
       </c>
@@ -4213,35 +4213,35 @@
       <c r="T33" s="21">
         <v>12</v>
       </c>
-      <c r="U33" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC33" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD33" s="12" t="s">
-        <v>28</v>
+      <c r="U33" s="21">
+        <v>8</v>
+      </c>
+      <c r="V33" s="12">
+        <v>4</v>
+      </c>
+      <c r="W33" s="12">
+        <v>4</v>
+      </c>
+      <c r="X33" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB33" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="12">
+        <v>4</v>
       </c>
       <c r="AE33" s="12" t="s">
         <v>28</v>
@@ -4250,16 +4250,16 @@
         <v>28</v>
       </c>
       <c r="AG33" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="AH33" s="12">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI33" s="12">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AJ33" s="12">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="28" customHeight="1">
@@ -5262,52 +5262,52 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
     </row>
     <row r="45" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="32"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="18">
         <v>1</v>
       </c>
@@ -7267,52 +7267,52 @@
       </c>
     </row>
     <row r="65" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="31"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="31"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="31"/>
-      <c r="AD65" s="31"/>
-      <c r="AE65" s="31"/>
-      <c r="AF65" s="31"/>
-      <c r="AG65" s="31"/>
-      <c r="AH65" s="31"/>
-      <c r="AI65" s="31"/>
-      <c r="AJ65" s="31"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
     </row>
     <row r="66" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A66" s="32"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="18">
         <v>1</v>
       </c>
@@ -8281,9 +8281,9 @@
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:AJ65"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:AJ23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:AJ24"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:AJ44"/>
